--- a/CMCM Lab Associative Learning Study Counterbalacing.xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/joanneModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEC0D20-CB87-2D49-956D-734B66848326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443661BA-CC19-CD49-97ED-EE45023CC6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="15" r:id="rId1"/>
@@ -6324,7 +6324,7 @@
   <dimension ref="A1:AT56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/CMCM Lab Associative Learning Study Counterbalacing.xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/joanneModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443661BA-CC19-CD49-97ED-EE45023CC6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9838B28D-F449-5A42-9BFC-ACD350F7958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="15" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="198">
   <si>
     <t>curvilinear</t>
   </si>
@@ -626,6 +626,12 @@
   </si>
   <si>
     <t>Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID where test condition match 2 consistent pairing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID where test condition do NOT match 2 consistent pairing </t>
   </si>
 </sst>
 </file>
@@ -6321,10 +6327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C1E758-A916-E14B-ADDA-5F19F4648A93}">
-  <dimension ref="A1:AT56"/>
+  <dimension ref="A1:AT60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="109" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8067,6 +8073,9 @@
       <c r="AR30" s="5"/>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>196</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -8096,156 +8105,700 @@
       <c r="AR31" s="27"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="2"/>
+      <c r="A32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="Q32" s="2"/>
       <c r="AR32" s="28"/>
     </row>
-    <row r="33" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="2"/>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A33" s="52">
+        <v>1</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="52">
+        <v>1</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="52">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>30</v>
+      </c>
       <c r="AR33" s="28"/>
     </row>
-    <row r="34" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="2"/>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A34" s="52">
+        <v>3</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="52">
+        <v>1</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="52">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>30</v>
+      </c>
       <c r="AR34" s="28"/>
     </row>
-    <row r="35" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="31"/>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A35" s="52">
+        <v>5</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="52">
+        <v>1</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="52">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>43</v>
+      </c>
       <c r="AR35" s="28"/>
     </row>
-    <row r="36" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="28"/>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A36" s="53">
+        <v>7</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="53">
+        <v>2</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="53">
+        <v>3</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>43</v>
+      </c>
       <c r="AR36" s="28"/>
     </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A37" s="53">
+        <v>9</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="53">
+        <v>2</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="53">
+        <v>3</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>30</v>
+      </c>
       <c r="AR37" s="4"/>
     </row>
-    <row r="38" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A38" s="53">
+        <v>11</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="53">
+        <v>2</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="53">
+        <v>4</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>30</v>
+      </c>
       <c r="AR38" s="4"/>
     </row>
-    <row r="39" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="26"/>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>13</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="9">
+        <v>3</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="AR39" s="4"/>
     </row>
-    <row r="40" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="G40" s="33"/>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>15</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="9">
+        <v>3</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="AR40" s="3"/>
     </row>
-    <row r="41" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="34"/>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>17</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="9">
+        <v>3</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="9">
+        <v>2</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="AR41" s="19"/>
     </row>
-    <row r="42" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="34"/>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>19</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="10">
+        <v>4</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="10">
+        <v>3</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="AR42" s="19"/>
     </row>
-    <row r="43" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="34"/>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>21</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="10">
+        <v>4</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="10">
+        <v>3</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="AR43" s="19"/>
     </row>
-    <row r="44" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="34"/>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>23</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="10">
+        <v>4</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="10">
+        <v>4</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="AR44" s="19"/>
     </row>
-    <row r="45" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="34"/>
       <c r="AR45" s="19"/>
     </row>
-    <row r="46" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="34"/>
       <c r="AR46" s="19"/>
     </row>
-    <row r="47" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="34"/>
       <c r="AR47" s="19"/>
     </row>
-    <row r="48" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>197</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="34"/>
       <c r="AR48" s="19"/>
     </row>
-    <row r="49" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="34"/>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A49" s="52">
+        <v>2</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="52">
+        <v>1</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="52">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="52" t="s">
+        <v>30</v>
+      </c>
       <c r="AR49" s="19"/>
     </row>
-    <row r="50" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="34"/>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A50" s="52">
+        <v>4</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="52">
+        <v>1</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="52">
+        <v>2</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="52" t="s">
+        <v>30</v>
+      </c>
       <c r="AR50" s="19"/>
     </row>
-    <row r="51" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="34"/>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A51" s="52">
+        <v>6</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="52">
+        <v>1</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="52">
+        <v>2</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="52" t="s">
+        <v>43</v>
+      </c>
       <c r="AR51" s="19"/>
     </row>
-    <row r="52" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="34"/>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A52" s="53">
+        <v>8</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="53">
+        <v>2</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="53">
+        <v>3</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="53" t="s">
+        <v>43</v>
+      </c>
       <c r="AR52" s="19"/>
     </row>
-    <row r="53" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="34"/>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A53" s="53">
+        <v>10</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="53">
+        <v>2</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="53">
+        <v>4</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="53" t="s">
+        <v>30</v>
+      </c>
       <c r="AR53" s="19"/>
     </row>
-    <row r="54" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="5:44" x14ac:dyDescent="0.2">
-      <c r="G56" s="2"/>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A54" s="53">
+        <v>12</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="53">
+        <v>2</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="53">
+        <v>4</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>14</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="9">
+        <v>3</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>16</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="9">
+        <v>3</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="9">
+        <v>2</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>18</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="9">
+        <v>3</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="9">
+        <v>2</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>20</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="10">
+        <v>4</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="10">
+        <v>3</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>22</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="10">
+        <v>4</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="10">
+        <v>4</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <v>24</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="10">
+        <v>4</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="10">
+        <v>4</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CMCM Lab Associative Learning Study Counterbalacing.xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/joanneModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9838B28D-F449-5A42-9BFC-ACD350F7958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1E30C-1CAE-E441-AFB8-ED5DC02DCC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
@@ -6329,8 +6329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C1E758-A916-E14B-ADDA-5F19F4648A93}">
   <dimension ref="A1:AT60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="109" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
